--- a/test.xlsx
+++ b/test.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>工廠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>台中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>台北</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,6 +51,10 @@
   </si>
   <si>
     <t>新北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,13 +382,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -415,7 +416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -426,10 +427,10 @@
         <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -440,10 +441,10 @@
         <v>300</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -454,10 +455,10 @@
         <v>400</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -468,7 +469,7 @@
         <v>500</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -476,4 +477,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>工廠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>桃園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XDDD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +387,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -484,7 +488,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -570,7 +574,7 @@
         <v>500</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,46 +19,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>工廠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>碳排放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>超標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>台中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園</t>
   </si>
   <si>
     <t>台北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃園</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XDDD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -386,8 +369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -431,7 +414,7 @@
         <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -445,7 +428,7 @@
         <v>300</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -474,107 +457,6 @@
       </c>
       <c r="D6" t="s">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>300</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>400</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>500</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuan\Desktop\20BOT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>工廠</t>
   </si>
@@ -42,20 +42,32 @@
     <t>台北</t>
   </si>
   <si>
-    <t>新北</t>
+    <t>XD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
@@ -73,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,18 +93,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -105,7 +135,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -115,44 +145,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -179,15 +209,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -214,7 +243,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -226,142 +254,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -370,22 +422,22 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -442,7 +494,7 @@
         <v>400</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -456,12 +508,12 @@
         <v>500</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>